--- a/relatorio-criado-municipio/paracambi/Paracambi.xlsx
+++ b/relatorio-criado-municipio/paracambi/Paracambi.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>254</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
